--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_6_full.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_6_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,536 +417,2407 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>40221</v>
+        <v>32508</v>
       </c>
       <c r="B2">
-        <v>2010</v>
+        <v>1988</v>
       </c>
       <c r="C2">
-        <v>-0.3062152616856717</v>
+        <v>3.309964607477767</v>
       </c>
       <c r="D2">
-        <v>2011</v>
+        <v>1989</v>
+      </c>
+      <c r="E2">
+        <v>3.292079387398705</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40310</v>
+        <v>32598</v>
       </c>
       <c r="B3">
-        <v>2010</v>
+        <v>1989</v>
       </c>
       <c r="C3">
-        <v>0.227019714730492</v>
+        <v>3.688401115664597</v>
       </c>
       <c r="D3">
-        <v>2011</v>
-      </c>
-      <c r="E3">
-        <v>-1.435416797561895</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40403</v>
+        <v>32689</v>
       </c>
       <c r="B4">
-        <v>2010</v>
+        <v>1989</v>
       </c>
       <c r="C4">
-        <v>2.728275269836344</v>
+        <v>4.070810498787703</v>
       </c>
       <c r="D4">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="E4">
-        <v>0.06199991798563342</v>
+        <v>2.938039590662322</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40494</v>
+        <v>32781</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>1989</v>
       </c>
       <c r="C5">
-        <v>3.340769212732742</v>
+        <v>3.781674546952152</v>
       </c>
       <c r="D5">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="E5">
-        <v>0.3565121095773449</v>
+        <v>2.637960524935878</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40589</v>
+        <v>32873</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>1989</v>
       </c>
       <c r="C6">
-        <v>1.007916994316016</v>
+        <v>3.990753256129032</v>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>1990</v>
+      </c>
+      <c r="E6">
+        <v>3.894766455402432</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40676</v>
+        <v>32963</v>
       </c>
       <c r="B7">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="C7">
-        <v>2.901943278928609</v>
+        <v>3.742536912947325</v>
       </c>
       <c r="D7">
-        <v>2012</v>
-      </c>
-      <c r="E7">
-        <v>0.5233902163345405</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40771</v>
+        <v>33054</v>
       </c>
       <c r="B8">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="C8">
-        <v>2.923146471859561</v>
+        <v>5.160693331242894</v>
       </c>
       <c r="D8">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="E8">
-        <v>1.175364803389889</v>
+        <v>4.221727333422343</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>33146</v>
       </c>
       <c r="B9">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="C9">
-        <v>3.266613546244024</v>
+        <v>4.640054868618004</v>
       </c>
       <c r="D9">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="E9">
-        <v>2.857059467652245</v>
+        <v>3.657742353816062</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40954</v>
+        <v>33238</v>
       </c>
       <c r="B10">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="C10">
-        <v>2.057666725057561</v>
+        <v>5.337917583757479</v>
       </c>
       <c r="D10">
-        <v>2013</v>
+        <v>1991</v>
+      </c>
+      <c r="E10">
+        <v>5.271624700114952</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>33328</v>
       </c>
       <c r="B11">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="C11">
-        <v>1.790274425470972</v>
+        <v>5.679219151637538</v>
       </c>
       <c r="D11">
-        <v>2013</v>
-      </c>
-      <c r="E11">
-        <v>2.82221886911711</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41135</v>
+        <v>33419</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="C12">
-        <v>1.410692758482046</v>
+        <v>7.546366987894282</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="E12">
-        <v>2.665591140370926</v>
+        <v>5.683452322749094</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41228</v>
+        <v>33511</v>
       </c>
       <c r="B13">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="C13">
-        <v>1.171043385317327</v>
+        <v>7.316771621099827</v>
       </c>
       <c r="D13">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="E13">
-        <v>2.293513746063258</v>
+        <v>5.578536257870481</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41319</v>
+        <v>33603</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="C14">
-        <v>0.6474439870007398</v>
+        <v>6.210850358288234</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>1992</v>
+      </c>
+      <c r="E14">
+        <v>4.003658823348033</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41409</v>
+        <v>33694</v>
       </c>
       <c r="B15">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="C15">
-        <v>0.1236862571897479</v>
+        <v>3.851757724391391</v>
       </c>
       <c r="D15">
-        <v>2014</v>
-      </c>
-      <c r="E15">
-        <v>1.158834071395143</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41500</v>
+        <v>33785</v>
       </c>
       <c r="B16">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="C16">
-        <v>0.5151569210410489</v>
+        <v>4.006245321455038</v>
       </c>
       <c r="D16">
-        <v>2014</v>
+        <v>1993</v>
       </c>
       <c r="E16">
-        <v>1.384145559863281</v>
+        <v>5.347702329862036</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>41592</v>
+        <v>33877</v>
       </c>
       <c r="B17">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="C17">
-        <v>0.486130238396254</v>
+        <v>2.864756996166529</v>
       </c>
       <c r="D17">
-        <v>2014</v>
+        <v>1993</v>
       </c>
       <c r="E17">
-        <v>0.9879154814133928</v>
+        <v>4.527061539413357</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>41684</v>
+        <v>33969</v>
       </c>
       <c r="B18">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="C18">
-        <v>1.201888851717747</v>
+        <v>2.120896741860445</v>
       </c>
       <c r="D18">
-        <v>2015</v>
+        <v>1993</v>
+      </c>
+      <c r="E18">
+        <v>3.093518793608729</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>41774</v>
+        <v>34059</v>
       </c>
       <c r="B19">
-        <v>2014</v>
+        <v>1993</v>
       </c>
       <c r="C19">
-        <v>1.857760673406283</v>
+        <v>2.088976692562494</v>
       </c>
       <c r="D19">
-        <v>2015</v>
-      </c>
-      <c r="E19">
-        <v>1.070117761036204</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41865</v>
+        <v>34150</v>
       </c>
       <c r="B20">
-        <v>2014</v>
+        <v>1993</v>
       </c>
       <c r="C20">
-        <v>1.365368300414271</v>
+        <v>-1.215833328003513</v>
       </c>
       <c r="D20">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="E20">
-        <v>0.6171963139659731</v>
+        <v>2.073901557043811</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>41957</v>
+        <v>34242</v>
       </c>
       <c r="B21">
-        <v>2014</v>
+        <v>1993</v>
       </c>
       <c r="C21">
-        <v>1.462112914831626</v>
+        <v>-1.214734352986269</v>
       </c>
       <c r="D21">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="E21">
-        <v>0.5584147504514414</v>
+        <v>1.668515919881242</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>42048</v>
+        <v>34334</v>
       </c>
       <c r="B22">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="C22">
-        <v>1.105594811087096</v>
+        <v>-1.105151118378667</v>
       </c>
       <c r="D22">
-        <v>2016</v>
+        <v>1994</v>
+      </c>
+      <c r="E22">
+        <v>1.162146262435582</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>42137</v>
+        <v>34424</v>
       </c>
       <c r="B23">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="C23">
-        <v>1.180270576178954</v>
+        <v>0.5379966176019435</v>
       </c>
       <c r="D23">
-        <v>2016</v>
-      </c>
-      <c r="E23">
-        <v>0.9828438564608355</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>42230</v>
+        <v>34515</v>
       </c>
       <c r="B24">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="C24">
-        <v>1.491533106099707</v>
+        <v>1.925996996358492</v>
       </c>
       <c r="D24">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="E24">
-        <v>1.459098717642338</v>
+        <v>0.9788730637807941</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>42321</v>
+        <v>34607</v>
       </c>
       <c r="B25">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="C25">
-        <v>1.485174342633844</v>
+        <v>2.708787126488499</v>
       </c>
       <c r="D25">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="E25">
-        <v>1.630702503967973</v>
+        <v>1.362511602832805</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>42412</v>
+        <v>34699</v>
       </c>
       <c r="B26">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="C26">
-        <v>1.319551904765515</v>
+        <v>2.866096089773529</v>
       </c>
       <c r="D26">
-        <v>2017</v>
+        <v>1995</v>
+      </c>
+      <c r="E26">
+        <v>1.295274349906239</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>42503</v>
+        <v>34789</v>
       </c>
       <c r="B27">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="C27">
-        <v>1.682788630021537</v>
+        <v>1.773143439866853</v>
       </c>
       <c r="D27">
-        <v>2017</v>
-      </c>
-      <c r="E27">
-        <v>1.524079785503973</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>42594</v>
+        <v>34880</v>
       </c>
       <c r="B28">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="C28">
-        <v>1.848490986746865</v>
+        <v>1.768240960817691</v>
       </c>
       <c r="D28">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="E28">
-        <v>1.602982755478233</v>
+        <v>1.245293817949067</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>42689</v>
+        <v>34948</v>
       </c>
       <c r="B29">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="C29">
-        <v>1.733072837491711</v>
+        <v>2.43753725453999</v>
       </c>
       <c r="D29">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="E29">
-        <v>1.365567739091578</v>
+        <v>1.891581997212399</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>42780</v>
+        <v>35040</v>
       </c>
       <c r="B30">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="C30">
-        <v>1.541297613216419</v>
+        <v>2.255498870175066</v>
       </c>
       <c r="D30">
-        <v>2018</v>
+        <v>1996</v>
+      </c>
+      <c r="E30">
+        <v>2.253863008704204</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>42867</v>
+        <v>35131</v>
       </c>
       <c r="B31">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="C31">
-        <v>1.797357764064156</v>
+        <v>1.323124688210076</v>
       </c>
       <c r="D31">
-        <v>2018</v>
-      </c>
-      <c r="E31">
-        <v>1.792179635996094</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>42962</v>
+        <v>35221</v>
       </c>
       <c r="B32">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="C32">
-        <v>2.121446532996552</v>
+        <v>0.3964686323729483</v>
       </c>
       <c r="D32">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="E32">
-        <v>1.845788266820403</v>
+        <v>1.737945171598465</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>43053</v>
+        <v>35313</v>
       </c>
       <c r="B33">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="C33">
-        <v>2.532746743612302</v>
+        <v>1.293330814984683</v>
       </c>
       <c r="D33">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="E33">
-        <v>2.340401793803593</v>
+        <v>2.513340050456714</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
+        <v>35403</v>
+      </c>
+      <c r="B34">
+        <v>1996</v>
+      </c>
+      <c r="C34">
+        <v>1.440827265940592</v>
+      </c>
+      <c r="D34">
+        <v>1997</v>
+      </c>
+      <c r="E34">
+        <v>2.507861161314984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>35493</v>
+      </c>
+      <c r="B35">
+        <v>1997</v>
+      </c>
+      <c r="C35">
+        <v>1.942093028090741</v>
+      </c>
+      <c r="D35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>35586</v>
+      </c>
+      <c r="B36">
+        <v>1997</v>
+      </c>
+      <c r="C36">
+        <v>1.911229176079332</v>
+      </c>
+      <c r="D36">
+        <v>1998</v>
+      </c>
+      <c r="E36">
+        <v>1.765574213751031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>35683</v>
+      </c>
+      <c r="B37">
+        <v>1997</v>
+      </c>
+      <c r="C37">
+        <v>2.173417671615963</v>
+      </c>
+      <c r="D37">
+        <v>1998</v>
+      </c>
+      <c r="E37">
+        <v>1.813336464278081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>35768</v>
+      </c>
+      <c r="B38">
+        <v>1997</v>
+      </c>
+      <c r="C38">
+        <v>2.388790018333853</v>
+      </c>
+      <c r="D38">
+        <v>1998</v>
+      </c>
+      <c r="E38">
+        <v>2.172278666428507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>35881</v>
+      </c>
+      <c r="B39">
+        <v>1998</v>
+      </c>
+      <c r="C39">
+        <v>1.851626453647381</v>
+      </c>
+      <c r="D39">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>35950</v>
+      </c>
+      <c r="B40">
+        <v>1998</v>
+      </c>
+      <c r="C40">
+        <v>2.604301316925928</v>
+      </c>
+      <c r="D40">
+        <v>1999</v>
+      </c>
+      <c r="E40">
+        <v>2.171222607713874</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>36047</v>
+      </c>
+      <c r="B41">
+        <v>1998</v>
+      </c>
+      <c r="C41">
+        <v>2.758596188970497</v>
+      </c>
+      <c r="D41">
+        <v>1999</v>
+      </c>
+      <c r="E41">
+        <v>2.26748870303155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>36132</v>
+      </c>
+      <c r="B42">
+        <v>1998</v>
+      </c>
+      <c r="C42">
+        <v>2.868603576215123</v>
+      </c>
+      <c r="D42">
+        <v>1999</v>
+      </c>
+      <c r="E42">
+        <v>2.649778901248667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>36223</v>
+      </c>
+      <c r="B43">
+        <v>1999</v>
+      </c>
+      <c r="C43">
+        <v>1.398561117300412</v>
+      </c>
+      <c r="D43">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>36319</v>
+      </c>
+      <c r="B44">
+        <v>1999</v>
+      </c>
+      <c r="C44">
+        <v>1.158324173575842</v>
+      </c>
+      <c r="D44">
+        <v>2000</v>
+      </c>
+      <c r="E44">
+        <v>1.58292366310937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>36412</v>
+      </c>
+      <c r="B45">
+        <v>1999</v>
+      </c>
+      <c r="C45">
+        <v>0.716951092929885</v>
+      </c>
+      <c r="D45">
+        <v>2000</v>
+      </c>
+      <c r="E45">
+        <v>1.183079735375214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>36501</v>
+      </c>
+      <c r="B46">
+        <v>1999</v>
+      </c>
+      <c r="C46">
+        <v>1.199033587256038</v>
+      </c>
+      <c r="D46">
+        <v>2000</v>
+      </c>
+      <c r="E46">
+        <v>1.878782575038151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>36587</v>
+      </c>
+      <c r="B47">
+        <v>2000</v>
+      </c>
+      <c r="C47">
+        <v>2.042745307291383</v>
+      </c>
+      <c r="D47">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>36676</v>
+      </c>
+      <c r="B48">
+        <v>2000</v>
+      </c>
+      <c r="C48">
+        <v>2.318031336725856</v>
+      </c>
+      <c r="D48">
+        <v>2001</v>
+      </c>
+      <c r="E48">
+        <v>1.845439021891959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>36767</v>
+      </c>
+      <c r="B49">
+        <v>2000</v>
+      </c>
+      <c r="C49">
+        <v>3.039247994709449</v>
+      </c>
+      <c r="D49">
+        <v>2001</v>
+      </c>
+      <c r="E49">
+        <v>2.286406977081445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>36858</v>
+      </c>
+      <c r="B50">
+        <v>2000</v>
+      </c>
+      <c r="C50">
+        <v>3.180414548358224</v>
+      </c>
+      <c r="D50">
+        <v>2001</v>
+      </c>
+      <c r="E50">
+        <v>2.141413002119941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>36951</v>
+      </c>
+      <c r="B51">
+        <v>2001</v>
+      </c>
+      <c r="C51">
+        <v>1.947278343767089</v>
+      </c>
+      <c r="D51">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>37034</v>
+      </c>
+      <c r="B52">
+        <v>2001</v>
+      </c>
+      <c r="C52">
+        <v>1.789654024265319</v>
+      </c>
+      <c r="D52">
+        <v>2002</v>
+      </c>
+      <c r="E52">
+        <v>2.196383146547265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>37126</v>
+      </c>
+      <c r="B53">
+        <v>2001</v>
+      </c>
+      <c r="C53">
+        <v>1.286724192582089</v>
+      </c>
+      <c r="D53">
+        <v>2002</v>
+      </c>
+      <c r="E53">
+        <v>2.201787609031691</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>37222</v>
+      </c>
+      <c r="B54">
+        <v>2001</v>
+      </c>
+      <c r="C54">
+        <v>0.8881197053071554</v>
+      </c>
+      <c r="D54">
+        <v>2002</v>
+      </c>
+      <c r="E54">
+        <v>1.417229954124744</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>37314</v>
+      </c>
+      <c r="B55">
+        <v>2002</v>
+      </c>
+      <c r="C55">
+        <v>0.8821776025765171</v>
+      </c>
+      <c r="D55">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>37399</v>
+      </c>
+      <c r="B56">
+        <v>2002</v>
+      </c>
+      <c r="C56">
+        <v>0.4300398704087716</v>
+      </c>
+      <c r="D56">
+        <v>2003</v>
+      </c>
+      <c r="E56">
+        <v>1.402332333946066</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
+        <v>37490</v>
+      </c>
+      <c r="B57">
+        <v>2002</v>
+      </c>
+      <c r="C57">
+        <v>0.3498664944060481</v>
+      </c>
+      <c r="D57">
+        <v>2003</v>
+      </c>
+      <c r="E57">
+        <v>1.029333720985703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>37581</v>
+      </c>
+      <c r="B58">
+        <v>2002</v>
+      </c>
+      <c r="C58">
+        <v>0.2503723745896691</v>
+      </c>
+      <c r="D58">
+        <v>2003</v>
+      </c>
+      <c r="E58">
+        <v>0.8114623372950991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <v>37678</v>
+      </c>
+      <c r="B59">
+        <v>2003</v>
+      </c>
+      <c r="C59">
+        <v>0.3955067620187158</v>
+      </c>
+      <c r="D59">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
+        <v>37756</v>
+      </c>
+      <c r="B60">
+        <v>2003</v>
+      </c>
+      <c r="C60">
+        <v>0.03511167739842502</v>
+      </c>
+      <c r="D60">
+        <v>2004</v>
+      </c>
+      <c r="E60">
+        <v>0.2562430727641285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
+        <v>37847</v>
+      </c>
+      <c r="B61">
+        <v>2003</v>
+      </c>
+      <c r="C61">
+        <v>-0.1397977164021014</v>
+      </c>
+      <c r="D61">
+        <v>2004</v>
+      </c>
+      <c r="E61">
+        <v>0.2597232949187456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>37938</v>
+      </c>
+      <c r="B62">
+        <v>2003</v>
+      </c>
+      <c r="C62">
+        <v>-0.160597218777192</v>
+      </c>
+      <c r="D62">
+        <v>2004</v>
+      </c>
+      <c r="E62">
+        <v>0.06866307491661949</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
+        <v>38029</v>
+      </c>
+      <c r="B63">
+        <v>2004</v>
+      </c>
+      <c r="C63">
+        <v>0.2732723639328638</v>
+      </c>
+      <c r="D63">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>38120</v>
+      </c>
+      <c r="B64">
+        <v>2004</v>
+      </c>
+      <c r="C64">
+        <v>0.8278362239799275</v>
+      </c>
+      <c r="D64">
+        <v>2005</v>
+      </c>
+      <c r="E64">
+        <v>0.3390177388588489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>38211</v>
+      </c>
+      <c r="B65">
+        <v>2004</v>
+      </c>
+      <c r="C65">
+        <v>1.209701968723165</v>
+      </c>
+      <c r="D65">
+        <v>2005</v>
+      </c>
+      <c r="E65">
+        <v>0.6449475752072997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <v>38302</v>
+      </c>
+      <c r="B66">
+        <v>2004</v>
+      </c>
+      <c r="C66">
+        <v>1.142421957279982</v>
+      </c>
+      <c r="D66">
+        <v>2005</v>
+      </c>
+      <c r="E66">
+        <v>0.6102547707981243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>38398</v>
+      </c>
+      <c r="B67">
+        <v>2005</v>
+      </c>
+      <c r="C67">
+        <v>0.1486677974333439</v>
+      </c>
+      <c r="D67">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>38484</v>
+      </c>
+      <c r="B68">
+        <v>2005</v>
+      </c>
+      <c r="C68">
+        <v>1.225087189744944</v>
+      </c>
+      <c r="D68">
+        <v>2006</v>
+      </c>
+      <c r="E68">
+        <v>0.667546990777379</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>38575</v>
+      </c>
+      <c r="B69">
+        <v>2005</v>
+      </c>
+      <c r="C69">
+        <v>0.8013957675759853</v>
+      </c>
+      <c r="D69">
+        <v>2006</v>
+      </c>
+      <c r="E69">
+        <v>0.5267208981440064</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>38671</v>
+      </c>
+      <c r="B70">
+        <v>2005</v>
+      </c>
+      <c r="C70">
+        <v>1.080932672358381</v>
+      </c>
+      <c r="D70">
+        <v>2006</v>
+      </c>
+      <c r="E70">
+        <v>1.236500865721557</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>38762</v>
+      </c>
+      <c r="B71">
+        <v>2006</v>
+      </c>
+      <c r="C71">
+        <v>1.130729136307695</v>
+      </c>
+      <c r="D71">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>38848</v>
+      </c>
+      <c r="B72">
+        <v>2006</v>
+      </c>
+      <c r="C72">
+        <v>1.25962308444949</v>
+      </c>
+      <c r="D72">
+        <v>2007</v>
+      </c>
+      <c r="E72">
+        <v>1.234589750228898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>38943</v>
+      </c>
+      <c r="B73">
+        <v>2006</v>
+      </c>
+      <c r="C73">
+        <v>2.152528147681876</v>
+      </c>
+      <c r="D73">
+        <v>2007</v>
+      </c>
+      <c r="E73">
+        <v>1.519596551719538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>39035</v>
+      </c>
+      <c r="B74">
+        <v>2006</v>
+      </c>
+      <c r="C74">
+        <v>2.573999374437519</v>
+      </c>
+      <c r="D74">
+        <v>2007</v>
+      </c>
+      <c r="E74">
+        <v>1.889446339562029</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <v>39126</v>
+      </c>
+      <c r="B75">
+        <v>2007</v>
+      </c>
+      <c r="C75">
+        <v>2.677133763286932</v>
+      </c>
+      <c r="D75">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
+        <v>39217</v>
+      </c>
+      <c r="B76">
+        <v>2007</v>
+      </c>
+      <c r="C76">
+        <v>2.913301031104365</v>
+      </c>
+      <c r="D76">
+        <v>2008</v>
+      </c>
+      <c r="E76">
+        <v>2.470114202933038</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2">
+        <v>39308</v>
+      </c>
+      <c r="B77">
+        <v>2007</v>
+      </c>
+      <c r="C77">
+        <v>2.665247278311167</v>
+      </c>
+      <c r="D77">
+        <v>2008</v>
+      </c>
+      <c r="E77">
+        <v>2.448133414186437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
+        <v>39400</v>
+      </c>
+      <c r="B78">
+        <v>2007</v>
+      </c>
+      <c r="C78">
+        <v>2.701415685301534</v>
+      </c>
+      <c r="D78">
+        <v>2008</v>
+      </c>
+      <c r="E78">
+        <v>2.58473653892517</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
+        <v>39492</v>
+      </c>
+      <c r="B79">
+        <v>2008</v>
+      </c>
+      <c r="C79">
+        <v>2.212646691359077</v>
+      </c>
+      <c r="D79">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
+        <v>39583</v>
+      </c>
+      <c r="B80">
+        <v>2008</v>
+      </c>
+      <c r="C80">
+        <v>3.255112626708478</v>
+      </c>
+      <c r="D80">
+        <v>2009</v>
+      </c>
+      <c r="E80">
+        <v>3.010064440080429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
+        <v>39674</v>
+      </c>
+      <c r="B81">
+        <v>2008</v>
+      </c>
+      <c r="C81">
+        <v>2.037895645934684</v>
+      </c>
+      <c r="D81">
+        <v>2009</v>
+      </c>
+      <c r="E81">
+        <v>2.352017657161687</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
+        <v>39765</v>
+      </c>
+      <c r="B82">
+        <v>2008</v>
+      </c>
+      <c r="C82">
+        <v>1.582937641859083</v>
+      </c>
+      <c r="D82">
+        <v>2009</v>
+      </c>
+      <c r="E82">
+        <v>1.386725702500713</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
+        <v>39857</v>
+      </c>
+      <c r="B83">
+        <v>2009</v>
+      </c>
+      <c r="C83">
+        <v>-1.536890652925638</v>
+      </c>
+      <c r="D83">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
+        <v>39948</v>
+      </c>
+      <c r="B84">
+        <v>2009</v>
+      </c>
+      <c r="C84">
+        <v>-6.189442960727964</v>
+      </c>
+      <c r="D84">
+        <v>2010</v>
+      </c>
+      <c r="E84">
+        <v>-1.115179555546519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
+        <v>40038</v>
+      </c>
+      <c r="B85">
+        <v>2009</v>
+      </c>
+      <c r="C85">
+        <v>-5.616379628600376</v>
+      </c>
+      <c r="D85">
+        <v>2010</v>
+      </c>
+      <c r="E85">
+        <v>-1.180492529607868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2">
+        <v>40130</v>
+      </c>
+      <c r="B86">
+        <v>2009</v>
+      </c>
+      <c r="C86">
+        <v>-5.011264053911613</v>
+      </c>
+      <c r="D86">
+        <v>2010</v>
+      </c>
+      <c r="E86">
+        <v>-0.4521396749079032</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2">
+        <v>40221</v>
+      </c>
+      <c r="B87">
+        <v>2010</v>
+      </c>
+      <c r="C87">
+        <v>-0.3062152616856717</v>
+      </c>
+      <c r="D87">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2">
+        <v>40310</v>
+      </c>
+      <c r="B88">
+        <v>2010</v>
+      </c>
+      <c r="C88">
+        <v>0.227019714730492</v>
+      </c>
+      <c r="D88">
+        <v>2011</v>
+      </c>
+      <c r="E88">
+        <v>-1.435416797561895</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2">
+        <v>40403</v>
+      </c>
+      <c r="B89">
+        <v>2010</v>
+      </c>
+      <c r="C89">
+        <v>2.728275269836344</v>
+      </c>
+      <c r="D89">
+        <v>2011</v>
+      </c>
+      <c r="E89">
+        <v>0.06199991798563342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
+        <v>40494</v>
+      </c>
+      <c r="B90">
+        <v>2010</v>
+      </c>
+      <c r="C90">
+        <v>3.340769212732742</v>
+      </c>
+      <c r="D90">
+        <v>2011</v>
+      </c>
+      <c r="E90">
+        <v>0.3565121095773449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <v>40589</v>
+      </c>
+      <c r="B91">
+        <v>2011</v>
+      </c>
+      <c r="C91">
+        <v>1.007916994316016</v>
+      </c>
+      <c r="D91">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
+        <v>40676</v>
+      </c>
+      <c r="B92">
+        <v>2011</v>
+      </c>
+      <c r="C92">
+        <v>2.901943278928609</v>
+      </c>
+      <c r="D92">
+        <v>2012</v>
+      </c>
+      <c r="E92">
+        <v>0.5233902163345405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <v>40771</v>
+      </c>
+      <c r="B93">
+        <v>2011</v>
+      </c>
+      <c r="C93">
+        <v>2.923146471859561</v>
+      </c>
+      <c r="D93">
+        <v>2012</v>
+      </c>
+      <c r="E93">
+        <v>1.175364803389889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>40862</v>
+      </c>
+      <c r="B94">
+        <v>2011</v>
+      </c>
+      <c r="C94">
+        <v>3.266613546244024</v>
+      </c>
+      <c r="D94">
+        <v>2012</v>
+      </c>
+      <c r="E94">
+        <v>2.857059467652245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
+        <v>40954</v>
+      </c>
+      <c r="B95">
+        <v>2012</v>
+      </c>
+      <c r="C95">
+        <v>2.057666725057561</v>
+      </c>
+      <c r="D95">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <v>41044</v>
+      </c>
+      <c r="B96">
+        <v>2012</v>
+      </c>
+      <c r="C96">
+        <v>1.790274425470972</v>
+      </c>
+      <c r="D96">
+        <v>2013</v>
+      </c>
+      <c r="E96">
+        <v>2.82221886911711</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <v>41135</v>
+      </c>
+      <c r="B97">
+        <v>2012</v>
+      </c>
+      <c r="C97">
+        <v>1.410692758482046</v>
+      </c>
+      <c r="D97">
+        <v>2013</v>
+      </c>
+      <c r="E97">
+        <v>2.665591140370926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
+        <v>41228</v>
+      </c>
+      <c r="B98">
+        <v>2012</v>
+      </c>
+      <c r="C98">
+        <v>1.171043385317327</v>
+      </c>
+      <c r="D98">
+        <v>2013</v>
+      </c>
+      <c r="E98">
+        <v>2.293513746063258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2">
+        <v>41319</v>
+      </c>
+      <c r="B99">
+        <v>2013</v>
+      </c>
+      <c r="C99">
+        <v>0.6474439870007398</v>
+      </c>
+      <c r="D99">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
+        <v>41409</v>
+      </c>
+      <c r="B100">
+        <v>2013</v>
+      </c>
+      <c r="C100">
+        <v>0.1236862571897479</v>
+      </c>
+      <c r="D100">
+        <v>2014</v>
+      </c>
+      <c r="E100">
+        <v>1.158834071395143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2">
+        <v>41500</v>
+      </c>
+      <c r="B101">
+        <v>2013</v>
+      </c>
+      <c r="C101">
+        <v>0.5151569210410489</v>
+      </c>
+      <c r="D101">
+        <v>2014</v>
+      </c>
+      <c r="E101">
+        <v>1.384145559863281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2">
+        <v>41592</v>
+      </c>
+      <c r="B102">
+        <v>2013</v>
+      </c>
+      <c r="C102">
+        <v>0.486130238396254</v>
+      </c>
+      <c r="D102">
+        <v>2014</v>
+      </c>
+      <c r="E102">
+        <v>0.9879154814133928</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B103">
+        <v>2014</v>
+      </c>
+      <c r="C103">
+        <v>1.201888851717747</v>
+      </c>
+      <c r="D103">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2">
+        <v>41774</v>
+      </c>
+      <c r="B104">
+        <v>2014</v>
+      </c>
+      <c r="C104">
+        <v>1.857760673406283</v>
+      </c>
+      <c r="D104">
+        <v>2015</v>
+      </c>
+      <c r="E104">
+        <v>1.070117761036204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2">
+        <v>41865</v>
+      </c>
+      <c r="B105">
+        <v>2014</v>
+      </c>
+      <c r="C105">
+        <v>1.365368300414271</v>
+      </c>
+      <c r="D105">
+        <v>2015</v>
+      </c>
+      <c r="E105">
+        <v>0.6171963139659731</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2">
+        <v>41957</v>
+      </c>
+      <c r="B106">
+        <v>2014</v>
+      </c>
+      <c r="C106">
+        <v>1.462112914831626</v>
+      </c>
+      <c r="D106">
+        <v>2015</v>
+      </c>
+      <c r="E106">
+        <v>0.5584147504514414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2">
+        <v>42048</v>
+      </c>
+      <c r="B107">
+        <v>2015</v>
+      </c>
+      <c r="C107">
+        <v>1.105594811087096</v>
+      </c>
+      <c r="D107">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2">
+        <v>42137</v>
+      </c>
+      <c r="B108">
+        <v>2015</v>
+      </c>
+      <c r="C108">
+        <v>1.180270576178954</v>
+      </c>
+      <c r="D108">
+        <v>2016</v>
+      </c>
+      <c r="E108">
+        <v>0.9828438564608355</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2">
+        <v>42230</v>
+      </c>
+      <c r="B109">
+        <v>2015</v>
+      </c>
+      <c r="C109">
+        <v>1.491533106099707</v>
+      </c>
+      <c r="D109">
+        <v>2016</v>
+      </c>
+      <c r="E109">
+        <v>1.459098717642338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2">
+        <v>42321</v>
+      </c>
+      <c r="B110">
+        <v>2015</v>
+      </c>
+      <c r="C110">
+        <v>1.485174342633844</v>
+      </c>
+      <c r="D110">
+        <v>2016</v>
+      </c>
+      <c r="E110">
+        <v>1.630702503967973</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2">
+        <v>42412</v>
+      </c>
+      <c r="B111">
+        <v>2016</v>
+      </c>
+      <c r="C111">
+        <v>1.319551904765515</v>
+      </c>
+      <c r="D111">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2">
+        <v>42503</v>
+      </c>
+      <c r="B112">
+        <v>2016</v>
+      </c>
+      <c r="C112">
+        <v>1.682788630021537</v>
+      </c>
+      <c r="D112">
+        <v>2017</v>
+      </c>
+      <c r="E112">
+        <v>1.524079785503973</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2">
+        <v>42594</v>
+      </c>
+      <c r="B113">
+        <v>2016</v>
+      </c>
+      <c r="C113">
+        <v>1.848490986746865</v>
+      </c>
+      <c r="D113">
+        <v>2017</v>
+      </c>
+      <c r="E113">
+        <v>1.602982755478233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2">
+        <v>42689</v>
+      </c>
+      <c r="B114">
+        <v>2016</v>
+      </c>
+      <c r="C114">
+        <v>1.733072837491711</v>
+      </c>
+      <c r="D114">
+        <v>2017</v>
+      </c>
+      <c r="E114">
+        <v>1.365567739091578</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2">
+        <v>42780</v>
+      </c>
+      <c r="B115">
+        <v>2017</v>
+      </c>
+      <c r="C115">
+        <v>1.541297613216419</v>
+      </c>
+      <c r="D115">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2">
+        <v>42867</v>
+      </c>
+      <c r="B116">
+        <v>2017</v>
+      </c>
+      <c r="C116">
+        <v>1.797357764064156</v>
+      </c>
+      <c r="D116">
+        <v>2018</v>
+      </c>
+      <c r="E116">
+        <v>1.792179635996094</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B117">
+        <v>2017</v>
+      </c>
+      <c r="C117">
+        <v>2.121446532996552</v>
+      </c>
+      <c r="D117">
+        <v>2018</v>
+      </c>
+      <c r="E117">
+        <v>1.845788266820403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B118">
+        <v>2017</v>
+      </c>
+      <c r="C118">
+        <v>2.532746743612302</v>
+      </c>
+      <c r="D118">
+        <v>2018</v>
+      </c>
+      <c r="E118">
+        <v>2.340401793803593</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2">
         <v>43145</v>
       </c>
-      <c r="B34">
+      <c r="B119">
         <v>2018</v>
       </c>
-      <c r="C34">
+      <c r="C119">
         <v>2.368475053427077</v>
       </c>
-      <c r="D34">
+      <c r="D119">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B120">
+        <v>2018</v>
+      </c>
+      <c r="C120">
+        <v>2.110288011358219</v>
+      </c>
+      <c r="D120">
+        <v>2019</v>
+      </c>
+      <c r="E120">
+        <v>2.195414156958653</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B121">
+        <v>2018</v>
+      </c>
+      <c r="C121">
+        <v>1.960952785906112</v>
+      </c>
+      <c r="D121">
+        <v>2019</v>
+      </c>
+      <c r="E121">
+        <v>2.196920447396122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B122">
+        <v>2018</v>
+      </c>
+      <c r="C122">
+        <v>1.55060959846447</v>
+      </c>
+      <c r="D122">
+        <v>2019</v>
+      </c>
+      <c r="E122">
+        <v>1.450339910498544</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B123">
+        <v>2019</v>
+      </c>
+      <c r="C123">
+        <v>1.025120441442362</v>
+      </c>
+      <c r="D123">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B124">
+        <v>2019</v>
+      </c>
+      <c r="C124">
+        <v>1.090028298452594</v>
+      </c>
+      <c r="D124">
+        <v>2020</v>
+      </c>
+      <c r="E124">
+        <v>1.7038902012801</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>43691</v>
+      </c>
+      <c r="B125">
+        <v>2019</v>
+      </c>
+      <c r="C125">
+        <v>0.8508096809331844</v>
+      </c>
+      <c r="D125">
+        <v>2020</v>
+      </c>
+      <c r="E125">
+        <v>1.593470246305739</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B126">
+        <v>2019</v>
+      </c>
+      <c r="C126">
+        <v>0.605733605626968</v>
+      </c>
+      <c r="D126">
+        <v>2020</v>
+      </c>
+      <c r="E126">
+        <v>0.9875621988306049</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B127">
+        <v>2020</v>
+      </c>
+      <c r="C127">
+        <v>0.7293129067031723</v>
+      </c>
+      <c r="D127">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B128">
+        <v>2020</v>
+      </c>
+      <c r="C128">
+        <v>-2.298160567755181</v>
+      </c>
+      <c r="D128">
+        <v>2021</v>
+      </c>
+      <c r="E128">
+        <v>-0.189504292099274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B129">
+        <v>2020</v>
+      </c>
+      <c r="C129">
+        <v>-9.857376015145402</v>
+      </c>
+      <c r="D129">
+        <v>2021</v>
+      </c>
+      <c r="E129">
+        <v>-6.599947055204336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B130">
+        <v>2020</v>
+      </c>
+      <c r="C130">
+        <v>-5.393157855150243</v>
+      </c>
+      <c r="D130">
+        <v>2021</v>
+      </c>
+      <c r="E130">
+        <v>0.6614402521704976</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B131">
+        <v>2021</v>
+      </c>
+      <c r="C131">
+        <v>1.105707694009661</v>
+      </c>
+      <c r="D131">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B132">
+        <v>2021</v>
+      </c>
+      <c r="C132">
+        <v>-0.4097622583637439</v>
+      </c>
+      <c r="D132">
+        <v>2022</v>
+      </c>
+      <c r="E132">
+        <v>-1.402182612722491</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B133">
+        <v>2021</v>
+      </c>
+      <c r="C133">
+        <v>1.258457620132392</v>
+      </c>
+      <c r="D133">
+        <v>2022</v>
+      </c>
+      <c r="E133">
+        <v>-0.1384117278926178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B134">
+        <v>2021</v>
+      </c>
+      <c r="C134">
+        <v>2.658879889741361</v>
+      </c>
+      <c r="D134">
+        <v>2022</v>
+      </c>
+      <c r="E134">
+        <v>1.246339038163491</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B135">
+        <v>2022</v>
+      </c>
+      <c r="C135">
+        <v>1.144245914519737</v>
+      </c>
+      <c r="D135">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B136">
+        <v>2022</v>
+      </c>
+      <c r="C136">
+        <v>1.337727334836236</v>
+      </c>
+      <c r="D136">
+        <v>2023</v>
+      </c>
+      <c r="E136">
+        <v>0.0005402952784727688</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B137">
+        <v>2022</v>
+      </c>
+      <c r="C137">
+        <v>1.823891632469499</v>
+      </c>
+      <c r="D137">
+        <v>2023</v>
+      </c>
+      <c r="E137">
+        <v>0.3663209760083941</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B138">
+        <v>2022</v>
+      </c>
+      <c r="C138">
+        <v>1.999826927380854</v>
+      </c>
+      <c r="D138">
+        <v>2023</v>
+      </c>
+      <c r="E138">
+        <v>1.097222285099164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B139">
+        <v>2023</v>
+      </c>
+      <c r="C139">
+        <v>2.915043290829988</v>
+      </c>
+      <c r="D139">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B140">
+        <v>2023</v>
+      </c>
+      <c r="C140">
+        <v>-0.1810712239929457</v>
+      </c>
+      <c r="D140">
+        <v>2024</v>
+      </c>
+      <c r="E140">
+        <v>0.942795092185289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B141">
+        <v>2023</v>
+      </c>
+      <c r="C141">
+        <v>-0.05718936159835319</v>
+      </c>
+      <c r="D141">
+        <v>2024</v>
+      </c>
+      <c r="E141">
+        <v>0.9034216300687126</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B142">
+        <v>2023</v>
+      </c>
+      <c r="C142">
+        <v>-0.02454192713037262</v>
+      </c>
+      <c r="D142">
+        <v>2024</v>
+      </c>
+      <c r="E142">
+        <v>1.192480395252127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B143">
+        <v>2024</v>
+      </c>
+      <c r="C143">
+        <v>0.1207727564398242</v>
+      </c>
+      <c r="D143">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B144">
+        <v>2024</v>
+      </c>
+      <c r="C144">
+        <v>0.02136143473541186</v>
+      </c>
+      <c r="D144">
+        <v>2025</v>
+      </c>
+      <c r="E144">
+        <v>0.3538309530010331</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B145">
+        <v>2024</v>
+      </c>
+      <c r="C145">
+        <v>-0.0268205859629056</v>
+      </c>
+      <c r="D145">
+        <v>2025</v>
+      </c>
+      <c r="E145">
+        <v>0.06386240425391154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B146">
+        <v>2024</v>
+      </c>
+      <c r="C146">
+        <v>-0.1570176223593789</v>
+      </c>
+      <c r="D146">
+        <v>2025</v>
+      </c>
+      <c r="E146">
+        <v>-0.04544624979142542</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B147">
+        <v>2025</v>
+      </c>
+      <c r="C147">
+        <v>-0.2375488353933419</v>
+      </c>
+      <c r="D147">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45800</v>
+      </c>
+      <c r="B148">
+        <v>2025</v>
+      </c>
+      <c r="C148">
+        <v>0.1723638860727128</v>
+      </c>
+      <c r="D148">
+        <v>2026</v>
+      </c>
+      <c r="E148">
+        <v>-0.1770403288700262</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B149">
+        <v>2025</v>
+      </c>
+      <c r="C149">
+        <v>0.1076276004424725</v>
+      </c>
+      <c r="D149">
+        <v>2026</v>
+      </c>
+      <c r="E149">
+        <v>-0.4281444542486912</v>
       </c>
     </row>
   </sheetData>
